--- a/Data/customer_data.xlsx
+++ b/Data/customer_data.xlsx
@@ -583,7 +583,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/customer_data.xlsx
+++ b/Data/customer_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="6036"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9240" windowHeight="6036"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Location</t>
   </si>
@@ -147,6 +147,60 @@
   </si>
   <si>
     <t>Customer ID</t>
+  </si>
+  <si>
+    <t>[0 1 0 1 1 0 1 0]</t>
+  </si>
+  <si>
+    <t>2     0</t>
+  </si>
+  <si>
+    <t>28    1</t>
+  </si>
+  <si>
+    <t>13    1</t>
+  </si>
+  <si>
+    <t>10    1</t>
+  </si>
+  <si>
+    <t>26    0</t>
+  </si>
+  <si>
+    <t>24    0</t>
+  </si>
+  <si>
+    <t>27    0</t>
+  </si>
+  <si>
+    <t>11    0</t>
+  </si>
+  <si>
+    <t>False positive = 2</t>
+  </si>
+  <si>
+    <t>False  Negative = 1</t>
+  </si>
+  <si>
+    <t>TP = 5</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>TP/(TP+FP)</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>TP/(TP+FN)</t>
   </si>
 </sst>
 </file>
@@ -580,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +651,7 @@
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>40</v>
       </c>
@@ -622,7 +676,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -645,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -668,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -691,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -713,8 +767,11 @@
       <c r="G5" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -736,8 +793,14 @@
       <c r="G6" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -759,8 +822,17 @@
       <c r="G7" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -782,8 +854,14 @@
       <c r="G8" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -805,8 +883,20 @@
       <c r="G9" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -828,8 +918,20 @@
       <c r="G10" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -851,8 +953,20 @@
       <c r="G11" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -874,8 +988,14 @@
       <c r="G12" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -897,8 +1017,14 @@
       <c r="G13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -920,8 +1046,14 @@
       <c r="G14" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -944,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>15</v>
       </c>
